--- a/06-MorMee_Constraints/MorMee-PowerConstraints.xlsx
+++ b/06-MorMee_Constraints/MorMee-PowerConstraints.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPaM-Ontology\06-Mandate-IR_and_Constraints\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPaM-Ontology\06-MorMee_Constraints\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12612" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12624" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="35" r:id="rId1"/>
@@ -432,9 +432,6 @@
     <t>Max contract value per EU-MS and validity period</t>
   </si>
   <si>
-    <t>Maximum contract amount value per EU MS, for specific periods and MS</t>
-  </si>
-  <si>
     <t>The period of validity to use the Power under this contractual constraint and the specified countries</t>
   </si>
   <si>
@@ -471,15 +468,9 @@
     <t>[e..g 3 YEARS]</t>
   </si>
   <si>
-    <t>http://ec.europa.eu/tools/ecertis/isa2/pam#MaxQuantityBusinessCreationGroup</t>
-  </si>
-  <si>
     <t>http://ec.europa.eu/tools/ecertis/isa2/pam#MaxQuantityBusinessCreationProperty</t>
   </si>
   <si>
-    <t>http://ec.europa.eu/tools/ecertis/isa2/pam#PowerUseValidityPeriodGroup</t>
-  </si>
-  <si>
     <t>http://ec.europa.eu/tools/ecertis/isa2/pam#PowerUseValidityPeriodProperty</t>
   </si>
   <si>
@@ -493,6 +484,15 @@
   </si>
   <si>
     <t>http://ec.europa.eu/tools/ecertis/isa2/pam#MaxQuantityBusinessCreationAndPeriodConstraint; f34be3a0-db90-42c4-b401-1ed4f757889a</t>
+  </si>
+  <si>
+    <t>Maximum contract amount value for specific MS and periods</t>
+  </si>
+  <si>
+    <t>http://ec.europa.eu/tools/ecertis/isa2/pam#MaxQuantityBusinessCreationGroup; c1ee6c5e-502f-4a9b-9c45-987a502cfe81</t>
+  </si>
+  <si>
+    <t>http://ec.europa.eu/tools/ecertis/isa2/pam#PowerUseValidityPeriodGroup; 473f6c6d-f525-413b-a2ca-973367e617bc</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1028,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1142,9 +1142,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="43" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="43" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1480,12 +1477,12 @@
   <sheetData>
     <row r="4" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1497,11 +1494,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="R9" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y10" sqref="Y10"/>
+      <selection pane="bottomRight" activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1518,8 +1515,8 @@
     <col min="20" max="20" width="19.77734375" style="2" customWidth="1"/>
     <col min="21" max="21" width="14.77734375" style="2" customWidth="1"/>
     <col min="22" max="22" width="10.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="32.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5546875" style="2" customWidth="1"/>
+    <col min="23" max="23" width="12.77734375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="12" style="2" customWidth="1"/>
     <col min="25" max="25" width="9.109375" style="17" customWidth="1"/>
     <col min="26" max="26" width="11.44140625" style="16" customWidth="1"/>
     <col min="27" max="27" width="36.5546875" style="2" bestFit="1" customWidth="1"/>
@@ -1654,10 +1651,10 @@
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
       <c r="Q2" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="R2" s="20" t="s">
         <v>138</v>
-      </c>
-      <c r="R2" s="20" t="s">
-        <v>139</v>
       </c>
       <c r="S2" s="20" t="s">
         <v>47</v>
@@ -2031,7 +2028,7 @@
         <v>49</v>
       </c>
       <c r="R10" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S10" s="24" t="s">
         <v>50</v>
@@ -4153,13 +4150,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y26" sqref="Y26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y33" sqref="Y33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.21875" customWidth="1"/>
     <col min="5" max="5" width="9.109375" customWidth="1"/>
     <col min="6" max="6" width="8.21875" customWidth="1"/>
@@ -4168,7 +4165,7 @@
     <col min="16" max="16" width="2.44140625" customWidth="1"/>
     <col min="17" max="17" width="28.5546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="46.44140625" customWidth="1"/>
-    <col min="19" max="19" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="37.88671875" customWidth="1"/>
     <col min="20" max="20" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12.33203125" customWidth="1"/>
     <col min="23" max="23" width="14.77734375" customWidth="1"/>
@@ -4312,7 +4309,7 @@
         <v>34</v>
       </c>
       <c r="S2" s="20" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="T2" s="20" t="s">
         <v>51</v>
@@ -4344,7 +4341,7 @@
     </row>
     <row r="3" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37">
-        <v>1</v>
+        <v>2011</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>27</v>
@@ -4798,7 +4795,7 @@
     </row>
     <row r="13" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="37">
-        <v>2</v>
+        <v>2012</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>27</v>
@@ -4827,7 +4824,7 @@
         <v>135</v>
       </c>
       <c r="R13" s="23" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="S13" s="23"/>
       <c r="T13" s="26"/>
@@ -4838,7 +4835,7 @@
       <c r="W13" s="23"/>
       <c r="X13" s="23"/>
       <c r="Y13" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z13" s="25" t="s">
         <v>1</v>
@@ -4886,7 +4883,7 @@
       <c r="W14" s="29"/>
       <c r="X14" s="29"/>
       <c r="Y14" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z14" s="7" t="s">
         <v>1</v>
@@ -4930,7 +4927,7 @@
       <c r="W15" s="30"/>
       <c r="X15" s="30"/>
       <c r="Y15" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Z15" s="12" t="s">
         <v>1</v>
@@ -4974,7 +4971,7 @@
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Z16" s="5" t="s">
         <v>1</v>
@@ -5175,7 +5172,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S20" s="5"/>
       <c r="T20" s="14"/>
@@ -5386,7 +5383,7 @@
     </row>
     <row r="26" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="37">
-        <v>3</v>
+        <v>2013</v>
       </c>
       <c r="B26" s="23" t="s">
         <v>27</v>
@@ -5412,10 +5409,10 @@
       <c r="O26" s="23"/>
       <c r="P26" s="23"/>
       <c r="Q26" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="R26" s="23" t="s">
         <v>145</v>
-      </c>
-      <c r="R26" s="23" t="s">
-        <v>146</v>
       </c>
       <c r="S26" s="23"/>
       <c r="T26" s="26"/>
@@ -5426,7 +5423,7 @@
       <c r="W26" s="23"/>
       <c r="X26" s="23"/>
       <c r="Y26" s="41" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Z26" s="25" t="s">
         <v>1</v>
@@ -5553,8 +5550,8 @@
       </c>
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
-      <c r="Y29" s="42" t="s">
-        <v>149</v>
+      <c r="Y29" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="Z29" s="5"/>
       <c r="AA29" s="5" t="s">
@@ -5599,7 +5596,7 @@
         <v>9</v>
       </c>
       <c r="U30" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V30" s="27">
         <v>1</v>
@@ -5612,8 +5609,8 @@
         <f>DED!$F$8</f>
         <v>ccts:Quantity</v>
       </c>
-      <c r="Y30" s="43" t="s">
-        <v>150</v>
+      <c r="Y30" s="32" t="s">
+        <v>148</v>
       </c>
       <c r="Z30" s="32"/>
       <c r="AA30" s="27" t="str">
@@ -5682,8 +5679,8 @@
       </c>
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
-      <c r="Y32" s="5" t="s">
-        <v>151</v>
+      <c r="Y32" s="42" t="s">
+        <v>156</v>
       </c>
       <c r="Z32" s="5"/>
       <c r="AA32" s="5" t="s">
@@ -5728,7 +5725,7 @@
         <v>9</v>
       </c>
       <c r="U33" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="V33" s="27">
         <v>1</v>
@@ -5742,7 +5739,7 @@
         <v>ubl:Period</v>
       </c>
       <c r="Y33" s="32" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Z33" s="32"/>
       <c r="AA33" s="27" t="str">
@@ -5821,10 +5818,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="Y26" r:id="rId1" location="MaxQuantityBusinessCreationAndPeriodConstraint; f34be3a0-db90-42c4-b401-1ed4f757889a"/>
-    <hyperlink ref="Y30" r:id="rId2" location="MaxQuantityBusinessCreationProperty" display="http://purl.com/isa2/pam#MaxQuantityBusinessCreationProperty"/>
-    <hyperlink ref="Y29" r:id="rId3" location="MaxQuantityBusinessCreationGroup" display="http://purl.com/isa2/pam#MaxQuantityBusinessCreationGroup"/>
+    <hyperlink ref="Y30" r:id="rId2" location="MaxQuantityBusinessCreationProperty"/>
+    <hyperlink ref="Y29" r:id="rId3" location="MaxQuantityBusinessCreationGroup; c1ee6c5e-502f-4a9b-9c45-987a502cfe81"/>
     <hyperlink ref="Y33" r:id="rId4" location="PowerUseValidityPeriodProperty" display="http://data.eu/isa2/pam#PowerUseValidityPeriodProperty"/>
-    <hyperlink ref="Y32" r:id="rId5" location="PowerUseValidityPeriodGroup" display="http://data.eu/isa2/pam#PowerUseValidityPeriodGroup"/>
+    <hyperlink ref="Y32" r:id="rId5" location="PowerUseValidityPeriodGroup; 473f6c6d-f525-413b-a2ca-973367e617bc"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>

--- a/06-MorMee_Constraints/MorMee-PowerConstraints.xlsx
+++ b/06-MorMee_Constraints/MorMee-PowerConstraints.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="182">
   <si>
     <t>Cardinality</t>
   </si>
@@ -144,9 +144,6 @@
     <t>To be defined, based on ISO country codes</t>
   </si>
   <si>
-    <t>The country code of the EU Member State where this Person can act</t>
-  </si>
-  <si>
     <t>CodeType</t>
   </si>
   <si>
@@ -192,9 +189,6 @@
     <t>Public Administration level</t>
   </si>
   <si>
-    <t>The level of the Public Administration for which the Mandatee has the power of acting on behalf of the Mandator</t>
-  </si>
-  <si>
     <t>PublicAdministrationLevels</t>
   </si>
   <si>
@@ -210,27 +204,18 @@
     <t>Maximum payment threshold</t>
   </si>
   <si>
-    <t>The maximum amount a Mandatee can pay on behalf of the Mandator in a financial or commercial operation</t>
-  </si>
-  <si>
     <t>MAX_PURCHASE_THRESHOLD</t>
   </si>
   <si>
     <t>Maximum purchase threshold</t>
   </si>
   <si>
-    <t>The maximum amount a Mandatee can pay when purchasing works, supplies or services on behalf of the Mandator</t>
-  </si>
-  <si>
     <t>MAX_BUSINESS_CREATION</t>
   </si>
   <si>
     <t>Maximum quantity of businesses created</t>
   </si>
   <si>
-    <t>The maximum number of businesses a Mandator can create on behalf of the Mandator</t>
-  </si>
-  <si>
     <t>QuantityType</t>
   </si>
   <si>
@@ -243,9 +228,6 @@
     <t>Maximum contract value threshold</t>
   </si>
   <si>
-    <t>The maximum amount for contracts signed by a Mandatee representing a Natural or Legal Person</t>
-  </si>
-  <si>
     <t>e.g. for Public Sector Contracts</t>
   </si>
   <si>
@@ -408,9 +390,6 @@
     <t>Power validity period</t>
   </si>
   <si>
-    <t>The lapse of time during which a power can be used</t>
-  </si>
-  <si>
     <t>Time lapse for the use of the power</t>
   </si>
   <si>
@@ -493,13 +472,109 @@
   </si>
   <si>
     <t>http://ec.europa.eu/tools/ecertis/isa2/pam#PowerUseValidityPeriodGroup; 473f6c6d-f525-413b-a2ca-973367e617bc</t>
+  </si>
+  <si>
+    <t>URI</t>
+  </si>
+  <si>
+    <t>https://github.com/everis-rpam/RPaM-Ontology/blob/v1.1.0/06-MorMee_Constraints/mormeeconstraints.ttl#EUMSGeographicalConstraint</t>
+  </si>
+  <si>
+    <t>https://github.com/everis-rpam/RPaM-Ontology/blob/v1.1.0/06-MorMee_Constraints/mormeeconstraints.ttl#EUMSGeographicalGroup</t>
+  </si>
+  <si>
+    <t>https://github.com/everis-rpam/RPaM-Ontology/blob/v1.1.0/06-MorMee_Constraints/mormeeconstraints.ttl#EUMSGeographicalProperty</t>
+  </si>
+  <si>
+    <t>https://github.com/everis-rpam/RPaM-Ontology/blob/v1.1.0/06-MorMee_Constraints/mormeeconstraints.ttl#AdministrativeLevelConstraint</t>
+  </si>
+  <si>
+    <t>https://github.com/everis-rpam/RPaM-Ontology/blob/v1.1.0/06-MorMee_Constraints/mormeeconstraints.ttl#AdministrativeLevelGroup</t>
+  </si>
+  <si>
+    <t>https://github.com/everis-rpam/RPaM-Ontology/blob/v1.1.0/06-MorMee_Constraints/mormeeconstraints.ttl#AdministrativeLevelProperty</t>
+  </si>
+  <si>
+    <t>https://github.com/everis-rpam/RPaM-Ontology/blob/v1.1.0/06-MorMee_Constraints/mormeeconstraints.ttl#MaxPaymentThresholdConstraint</t>
+  </si>
+  <si>
+    <t>https://github.com/everis-rpam/RPaM-Ontology/blob/v1.1.0/06-MorMee_Constraints/mormeeconstraints.ttl#MaxPaymentThresholdGroup</t>
+  </si>
+  <si>
+    <t>https://github.com/everis-rpam/RPaM-Ontology/blob/v1.1.0/06-MorMee_Constraints/mormeeconstraints.ttl#MaxPaymentThresholdProperty</t>
+  </si>
+  <si>
+    <t>https://github.com/everis-rpam/RPaM-Ontology/blob/v1.1.0/06-MorMee_Constraints/mormeeconstraints.ttl#MaxPurchaseThresholdConstraint</t>
+  </si>
+  <si>
+    <t>https://github.com/everis-rpam/RPaM-Ontology/blob/v1.1.0/06-MorMee_Constraints/mormeeconstraints.ttl#MaxPurchaseThresholdGroup</t>
+  </si>
+  <si>
+    <t>https://github.com/everis-rpam/RPaM-Ontology/blob/v1.1.0/06-MorMee_Constraints/mormeeconstraints.ttl#MaxPurchaseThresholdProperty</t>
+  </si>
+  <si>
+    <t>The country code of the EU Member State where this Person can act.</t>
+  </si>
+  <si>
+    <t>The level of the Public Administration for which the Mandatee has the power of acting on behalf of the Mandator.</t>
+  </si>
+  <si>
+    <t>The maximum amount a Mandatee can pay on behalf of the Mandator in a financial or commercial operation.</t>
+  </si>
+  <si>
+    <t>The maximum amount a Mandatee can pay when purchasing works, supplies or services on behalf of the Mandator.</t>
+  </si>
+  <si>
+    <t>The maximum number of businesses a Mandator can create on behalf of the Mandator.</t>
+  </si>
+  <si>
+    <t>The maximum amount for contracts signed by a Mandatee representing a Natural or Legal Person.</t>
+  </si>
+  <si>
+    <t>The lapse of time during which a power can be used.</t>
+  </si>
+  <si>
+    <t>https://github.com/everis-rpam/RPaM-Ontology/blob/v1.1.0/06-MorMee_Constraints/mormeeconstraints.ttl#MaxBusinessCreationConstraint</t>
+  </si>
+  <si>
+    <t>https://github.com/everis-rpam/RPaM-Ontology/blob/v1.1.0/06-MorMee_Constraints/mormeeconstraints.ttl#MaxBusinessCreationGroup</t>
+  </si>
+  <si>
+    <t>https://github.com/everis-rpam/RPaM-Ontology/blob/v1.1.0/06-MorMee_Constraints/mormeeconstraints.ttl#MaxBusinessCreationProperty</t>
+  </si>
+  <si>
+    <t>https://github.com/everis-rpam/RPaM-Ontology/blob/v1.1.0/06-MorMee_Constraints/mormeeconstraints.ttl#MaxContractValueConstraint</t>
+  </si>
+  <si>
+    <t>https://github.com/everis-rpam/RPaM-Ontology/blob/v1.1.0/06-MorMee_Constraints/mormeeconstraints.ttl#MaxContractValueGroup</t>
+  </si>
+  <si>
+    <t>https://github.com/everis-rpam/RPaM-Ontology/blob/v1.1.0/06-MorMee_Constraints/mormeeconstraints.ttl#MaxContractValueProperty</t>
+  </si>
+  <si>
+    <t>https://github.com/everis-rpam/RPaM-Ontology/blob/v1.1.0/06-MorMee_Constraints/mormeeconstraints.ttlGeoLocationScopeConstraint</t>
+  </si>
+  <si>
+    <t>https://github.com/everis-rpam/RPaM-Ontology/blob/v1.1.0/06-MorMee_Constraints/mormeeconstraints.ttlGeoLocationScopeGroup</t>
+  </si>
+  <si>
+    <t>https://github.com/everis-rpam/RPaM-Ontology/blob/v1.1.0/06-MorMee_Constraints/mormeeconstraints.ttlGeoLocationScopeProperty</t>
+  </si>
+  <si>
+    <t>https://github.com/everis-rpam/RPaM-Ontology/blob/v1.1.0/06-MorMee_Constraints/mormeeconstraints.ttl#PowerValdityPeriodConstraint</t>
+  </si>
+  <si>
+    <t>https://github.com/everis-rpam/RPaM-Ontology/blob/v1.1.0/06-MorMee_Constraints/mormeeconstraints.ttl#PowerValdityPeriodProperty</t>
+  </si>
+  <si>
+    <t>https://github.com/everis-rpam/RPaM-Ontology/blob/v1.1.0/06-MorMee_Constraints/mormeeconstraints.ttl#PowerValdityPeriodGroup</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -635,6 +710,29 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1028,7 +1126,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1142,6 +1240,42 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="43" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="43" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="43" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1477,12 +1611,12 @@
   <sheetData>
     <row r="4" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1492,13 +1626,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC58"/>
+  <dimension ref="A1:AD58"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R42" sqref="R42"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1517,13 +1651,14 @@
     <col min="22" max="22" width="10.5546875" style="16" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.77734375" style="2" customWidth="1"/>
     <col min="24" max="24" width="12" style="2" customWidth="1"/>
-    <col min="25" max="25" width="9.109375" style="17" customWidth="1"/>
-    <col min="26" max="26" width="11.44140625" style="16" customWidth="1"/>
-    <col min="27" max="27" width="36.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.44140625" style="2"/>
+    <col min="25" max="25" width="12" style="51" customWidth="1"/>
+    <col min="26" max="26" width="9.109375" style="17" customWidth="1"/>
+    <col min="27" max="27" width="11.44140625" style="16" customWidth="1"/>
+    <col min="28" max="28" width="36.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19">
         <v>1</v>
       </c>
@@ -1580,7 +1715,7 @@
         <v>18</v>
       </c>
       <c r="S1" s="19">
-        <f t="shared" ref="S1:AB1" si="0">R1+1</f>
+        <f t="shared" ref="S1:AC1" si="0">R1+1</f>
         <v>19</v>
       </c>
       <c r="T1" s="19">
@@ -1603,25 +1738,26 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="Y1" s="19">
-        <f t="shared" si="0"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="19">
+        <f>X1+1</f>
         <v>25</v>
       </c>
-      <c r="Z1" s="19">
+      <c r="AA1" s="19">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AA1" s="19">
+      <c r="AB1" s="19">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="AB1" s="19">
+      <c r="AC1" s="19">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="AC1" s="19"/>
-    </row>
-    <row r="2" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AD1" s="19"/>
+    </row>
+    <row r="2" spans="1:30" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
       <c r="B2" s="20" t="s">
         <v>1</v>
@@ -1651,16 +1787,16 @@
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
       <c r="Q2" s="20" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R2" s="20" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="S2" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T2" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U2" s="20" t="s">
         <v>24</v>
@@ -1674,20 +1810,23 @@
       <c r="X2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="Y2" s="20" t="s">
+      <c r="Y2" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="20" t="s">
+      <c r="AA2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AA2" s="20" t="s">
+      <c r="AB2" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="20" t="s">
+      <c r="AC2" s="20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21">
         <v>1</v>
       </c>
@@ -1715,13 +1854,13 @@
       <c r="O3" s="23"/>
       <c r="P3" s="23"/>
       <c r="Q3" s="23" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="R3" s="23" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="S3" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T3" s="26"/>
       <c r="U3" s="31"/>
@@ -1730,16 +1869,19 @@
       </c>
       <c r="W3" s="23"/>
       <c r="X3" s="23"/>
-      <c r="Y3" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="25"/>
-    </row>
-    <row r="4" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y3" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z3" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="25"/>
+    </row>
+    <row r="4" spans="1:30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1776,16 +1918,17 @@
       </c>
       <c r="W4" s="29"/>
       <c r="X4" s="29"/>
-      <c r="Y4" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="7"/>
-    </row>
-    <row r="5" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="7"/>
+    </row>
+    <row r="5" spans="1:30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1818,18 +1961,19 @@
       </c>
       <c r="W5" s="30"/>
       <c r="X5" s="30"/>
-      <c r="Y5" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12" t="s">
-        <v>1</v>
-      </c>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA5" s="12"/>
       <c r="AB5" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC5" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
@@ -1860,18 +2004,21 @@
       </c>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
-      <c r="Y6" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="Y6" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA6" s="5"/>
       <c r="AB6" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC6" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1896,7 +2043,7 @@
       </c>
       <c r="R7" s="32" t="str">
         <f>DED!$D$4</f>
-        <v>The country code of the EU Member State where this Person can act</v>
+        <v>The country code of the EU Member State where this Person can act.</v>
       </c>
       <c r="S7" s="27" t="str">
         <f>DED!$B$4</f>
@@ -1906,7 +2053,7 @@
         <v>9</v>
       </c>
       <c r="U7" s="32" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="V7" s="27" t="s">
         <v>4</v>
@@ -1919,21 +2066,24 @@
         <f>DED!$F$4</f>
         <v>skos:Concept</v>
       </c>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="32" t="str">
+      <c r="Y7" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="32" t="str">
         <f>IF(DED!$G$4=0,"",DED!$G$4)</f>
         <v>EU-MS-ActingScopes</v>
       </c>
-      <c r="AA7" s="27" t="str">
+      <c r="AB7" s="27" t="str">
         <f>IF(DED!$H$4=0,"",DED!$H$4)</f>
         <v/>
       </c>
-      <c r="AB7" s="32" t="str">
+      <c r="AC7" s="32" t="str">
         <f>IF(DED!$I$4=0,"",DED!$I$4)</f>
         <v>To be defined, based on ISO country codes</v>
       </c>
     </row>
-    <row r="8" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
@@ -1960,12 +2110,13 @@
       <c r="V8" s="14"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
+      <c r="Y8" s="49"/>
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
-    </row>
-    <row r="9" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC8" s="5"/>
+    </row>
+    <row r="9" spans="1:30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="23" t="s">
         <v>26</v>
@@ -1992,12 +2143,13 @@
       <c r="V9" s="4"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
+      <c r="Y9" s="50"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
-    </row>
-    <row r="10" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC9" s="3"/>
+    </row>
+    <row r="10" spans="1:30" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
         <v>2</v>
       </c>
@@ -2025,13 +2177,13 @@
       <c r="O10" s="23"/>
       <c r="P10" s="23"/>
       <c r="Q10" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="R10" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="S10" s="24" t="s">
         <v>49</v>
-      </c>
-      <c r="R10" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="S10" s="24" t="s">
-        <v>50</v>
       </c>
       <c r="T10" s="26"/>
       <c r="U10" s="31"/>
@@ -2040,16 +2192,19 @@
       </c>
       <c r="W10" s="23"/>
       <c r="X10" s="23"/>
-      <c r="Y10" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="25"/>
-    </row>
-    <row r="11" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y10" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z10" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="25"/>
+    </row>
+    <row r="11" spans="1:30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -2086,16 +2241,17 @@
       </c>
       <c r="W11" s="29"/>
       <c r="X11" s="29"/>
-      <c r="Y11" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="7"/>
-    </row>
-    <row r="12" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="7"/>
+    </row>
+    <row r="12" spans="1:30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2128,18 +2284,19 @@
       </c>
       <c r="W12" s="30"/>
       <c r="X12" s="30"/>
-      <c r="Y12" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12" t="s">
-        <v>1</v>
-      </c>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA12" s="12"/>
       <c r="AB12" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC12" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
@@ -2160,7 +2317,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S13" s="40"/>
       <c r="T13" s="14"/>
@@ -2170,18 +2327,21 @@
       </c>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
-      <c r="Y13" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="Y13" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z13" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA13" s="5"/>
       <c r="AB13" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC13" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -2206,7 +2366,7 @@
       </c>
       <c r="R14" s="32" t="str">
         <f>DED!$D$5</f>
-        <v>The level of the Public Administration for which the Mandatee has the power of acting on behalf of the Mandator</v>
+        <v>The level of the Public Administration for which the Mandatee has the power of acting on behalf of the Mandator.</v>
       </c>
       <c r="S14" s="27" t="str">
         <f>DED!$B$5</f>
@@ -2216,7 +2376,7 @@
         <v>9</v>
       </c>
       <c r="U14" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V14" s="27" t="s">
         <v>4</v>
@@ -2229,21 +2389,24 @@
         <f>DED!$F$5</f>
         <v>skos:Concept</v>
       </c>
-      <c r="Y14" s="27"/>
-      <c r="Z14" s="32" t="str">
+      <c r="Y14" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="32" t="str">
         <f>IF(DED!$G$5=0,"",DED!$G$5)</f>
         <v>PublicAdministrationLevels</v>
       </c>
-      <c r="AA14" s="27" t="str">
+      <c r="AB14" s="27" t="str">
         <f>IF(DED!$H$5=0,"",DED!$H$5)</f>
         <v/>
       </c>
-      <c r="AB14" s="32" t="str">
+      <c r="AC14" s="32" t="str">
         <f>IF(DED!$I$5=0,"",DED!$I$5)</f>
         <v>To be defined</v>
       </c>
     </row>
-    <row r="15" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
@@ -2270,12 +2433,13 @@
       <c r="V15" s="14"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
+      <c r="Y15" s="49"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
-    </row>
-    <row r="16" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC15" s="5"/>
+    </row>
+    <row r="16" spans="1:30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="23" t="s">
         <v>26</v>
@@ -2302,12 +2466,13 @@
       <c r="V16" s="4"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
+      <c r="Y16" s="50"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21">
         <v>3</v>
       </c>
@@ -2335,10 +2500,10 @@
       <c r="O17" s="23"/>
       <c r="P17" s="23"/>
       <c r="Q17" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="R17" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="S17" s="24" t="s">
         <v>19</v>
@@ -2350,16 +2515,19 @@
       </c>
       <c r="W17" s="23"/>
       <c r="X17" s="23"/>
-      <c r="Y17" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="25"/>
-    </row>
-    <row r="18" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y17" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z17" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="25"/>
+    </row>
+    <row r="18" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -2396,16 +2564,17 @@
       </c>
       <c r="W18" s="29"/>
       <c r="X18" s="29"/>
-      <c r="Y18" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="7"/>
-    </row>
-    <row r="19" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="7"/>
+    </row>
+    <row r="19" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -2438,18 +2607,19 @@
       </c>
       <c r="W19" s="30"/>
       <c r="X19" s="30"/>
-      <c r="Y19" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12" t="s">
-        <v>1</v>
-      </c>
+      <c r="Y19" s="47"/>
+      <c r="Z19" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA19" s="12"/>
       <c r="AB19" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC19" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
@@ -2478,18 +2648,21 @@
       </c>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
-      <c r="Y20" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="Y20" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z20" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA20" s="5"/>
       <c r="AB20" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC20" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -2514,7 +2687,7 @@
       </c>
       <c r="R21" s="32" t="str">
         <f>DED!$D$6</f>
-        <v>The maximum amount a Mandatee can pay on behalf of the Mandator in a financial or commercial operation</v>
+        <v>The maximum amount a Mandatee can pay on behalf of the Mandator in a financial or commercial operation.</v>
       </c>
       <c r="S21" s="27" t="str">
         <f>DED!$B$6</f>
@@ -2535,18 +2708,21 @@
         <f>DED!$F$6</f>
         <v>ccts:Amount</v>
       </c>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="32"/>
-      <c r="AA21" s="27" t="str">
+      <c r="Y21" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="32"/>
+      <c r="AB21" s="27" t="str">
         <f>IF(DED!$H$6=0,"",DED!$H$6)</f>
         <v>currencyId compulsory</v>
       </c>
-      <c r="AB21" s="32" t="str">
+      <c r="AC21" s="32" t="str">
         <f>IF(DED!$I$6=0,"",DED!$I$6)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5" t="s">
@@ -2573,12 +2749,13 @@
       <c r="V22" s="14"/>
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
+      <c r="Y22" s="49"/>
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
-    </row>
-    <row r="23" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC22" s="5"/>
+    </row>
+    <row r="23" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="23" t="s">
         <v>26</v>
@@ -2605,12 +2782,13 @@
       <c r="V23" s="4"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
+      <c r="Y23" s="50"/>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
-    </row>
-    <row r="24" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC23" s="3"/>
+    </row>
+    <row r="24" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21">
         <v>4</v>
       </c>
@@ -2638,10 +2816,10 @@
       <c r="O24" s="23"/>
       <c r="P24" s="23"/>
       <c r="Q24" s="23" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="R24" s="23" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="S24" s="24" t="s">
         <v>19</v>
@@ -2653,16 +2831,19 @@
       </c>
       <c r="W24" s="23"/>
       <c r="X24" s="23"/>
-      <c r="Y24" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="25"/>
-    </row>
-    <row r="25" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y24" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z24" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="25"/>
+    </row>
+    <row r="25" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -2699,16 +2880,17 @@
       </c>
       <c r="W25" s="29"/>
       <c r="X25" s="29"/>
-      <c r="Y25" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="7"/>
-    </row>
-    <row r="26" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y25" s="46"/>
+      <c r="Z25" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="7"/>
+    </row>
+    <row r="26" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -2741,18 +2923,19 @@
       </c>
       <c r="W26" s="30"/>
       <c r="X26" s="30"/>
-      <c r="Y26" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12" t="s">
-        <v>1</v>
-      </c>
+      <c r="Y26" s="47"/>
+      <c r="Z26" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA26" s="12"/>
       <c r="AB26" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC26" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
@@ -2781,18 +2964,21 @@
       </c>
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
-      <c r="Y27" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="Y27" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z27" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA27" s="5"/>
       <c r="AB27" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC27" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -2817,7 +3003,7 @@
       </c>
       <c r="R28" s="32" t="str">
         <f>DED!$D$7</f>
-        <v>The maximum amount a Mandatee can pay when purchasing works, supplies or services on behalf of the Mandator</v>
+        <v>The maximum amount a Mandatee can pay when purchasing works, supplies or services on behalf of the Mandator.</v>
       </c>
       <c r="S28" s="27" t="str">
         <f>DED!$B$7</f>
@@ -2838,18 +3024,21 @@
         <f>DED!$F$6</f>
         <v>ccts:Amount</v>
       </c>
-      <c r="Y28" s="27"/>
-      <c r="Z28" s="32"/>
-      <c r="AA28" s="27" t="str">
+      <c r="Y28" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="32"/>
+      <c r="AB28" s="27" t="str">
         <f>IF(DED!$H$7=0,"",DED!$H$7)</f>
         <v>currencyId compulsory</v>
       </c>
-      <c r="AB28" s="32" t="str">
+      <c r="AC28" s="32" t="str">
         <f>IF(DED!$I$7=0,"",DED!$I$7)</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5" t="s">
@@ -2876,12 +3065,13 @@
       <c r="V29" s="14"/>
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
+      <c r="Y29" s="49"/>
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
-    </row>
-    <row r="30" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC29" s="5"/>
+    </row>
+    <row r="30" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="23" t="s">
         <v>26</v>
@@ -2912,8 +3102,9 @@
       <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
-    </row>
-    <row r="31" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC30" s="3"/>
+    </row>
+    <row r="31" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21">
         <v>5</v>
       </c>
@@ -2941,10 +3132,10 @@
       <c r="O31" s="23"/>
       <c r="P31" s="23"/>
       <c r="Q31" s="23" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="R31" s="23" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="S31" s="24" t="s">
         <v>19</v>
@@ -2956,16 +3147,19 @@
       </c>
       <c r="W31" s="23"/>
       <c r="X31" s="23"/>
-      <c r="Y31" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z31" s="25"/>
-      <c r="AA31" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB31" s="25"/>
-    </row>
-    <row r="32" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y31" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z31" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="25"/>
+    </row>
+    <row r="32" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -3002,16 +3196,17 @@
       </c>
       <c r="W32" s="29"/>
       <c r="X32" s="29"/>
-      <c r="Y32" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z32" s="8"/>
-      <c r="AA32" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB32" s="7"/>
-    </row>
-    <row r="33" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y32" s="46"/>
+      <c r="Z32" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="7"/>
+    </row>
+    <row r="33" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -3044,18 +3239,19 @@
       </c>
       <c r="W33" s="30"/>
       <c r="X33" s="30"/>
-      <c r="Y33" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z33" s="12"/>
-      <c r="AA33" s="12" t="s">
-        <v>1</v>
-      </c>
+      <c r="Y33" s="47"/>
+      <c r="Z33" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA33" s="12"/>
       <c r="AB33" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC33" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
@@ -3084,18 +3280,21 @@
       </c>
       <c r="W34" s="5"/>
       <c r="X34" s="5"/>
-      <c r="Y34" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="Y34" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z34" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA34" s="5"/>
       <c r="AB34" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC34" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -3120,7 +3319,7 @@
       </c>
       <c r="R35" s="32" t="str">
         <f>DED!$D$8</f>
-        <v>The maximum number of businesses a Mandator can create on behalf of the Mandator</v>
+        <v>The maximum number of businesses a Mandator can create on behalf of the Mandator.</v>
       </c>
       <c r="S35" s="27" t="str">
         <f>DED!$B$8</f>
@@ -3143,18 +3342,21 @@
         <f>DED!$F$8</f>
         <v>ccts:Quantity</v>
       </c>
-      <c r="Y35" s="27"/>
-      <c r="Z35" s="32" t="str">
+      <c r="Y35" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="32" t="str">
         <f>IF(DED!$G$8=0,"",DED!$G$8)</f>
         <v/>
       </c>
-      <c r="AA35" s="27" t="str">
+      <c r="AB35" s="27" t="str">
         <f>IF(DED!$H$8=0,"",DED!$H$8)</f>
         <v>unitCode="BUSINESS"</v>
       </c>
-      <c r="AB35" s="32"/>
-    </row>
-    <row r="36" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC35" s="32"/>
+    </row>
+    <row r="36" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5" t="s">
@@ -3181,12 +3383,13 @@
       <c r="V36" s="14"/>
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
+      <c r="Y36" s="49"/>
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
       <c r="AB36" s="5"/>
-    </row>
-    <row r="37" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC36" s="5"/>
+    </row>
+    <row r="37" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="23" t="s">
         <v>26</v>
@@ -3213,12 +3416,13 @@
       <c r="V37" s="4"/>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
+      <c r="Y37" s="50"/>
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
-    </row>
-    <row r="38" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC37" s="3"/>
+    </row>
+    <row r="38" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="21">
         <v>6</v>
       </c>
@@ -3246,10 +3450,10 @@
       <c r="O38" s="23"/>
       <c r="P38" s="23"/>
       <c r="Q38" s="23" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="R38" s="23" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="S38" s="24" t="s">
         <v>19</v>
@@ -3261,16 +3465,19 @@
       </c>
       <c r="W38" s="23"/>
       <c r="X38" s="23"/>
-      <c r="Y38" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z38" s="25"/>
-      <c r="AA38" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB38" s="25"/>
-    </row>
-    <row r="39" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y38" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z38" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA38" s="25"/>
+      <c r="AB38" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="25"/>
+    </row>
+    <row r="39" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
@@ -3307,16 +3514,17 @@
       </c>
       <c r="W39" s="29"/>
       <c r="X39" s="29"/>
-      <c r="Y39" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z39" s="8"/>
-      <c r="AA39" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB39" s="7"/>
-    </row>
-    <row r="40" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y39" s="46"/>
+      <c r="Z39" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="7"/>
+    </row>
+    <row r="40" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
@@ -3349,18 +3557,19 @@
       </c>
       <c r="W40" s="30"/>
       <c r="X40" s="30"/>
-      <c r="Y40" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z40" s="12"/>
-      <c r="AA40" s="12" t="s">
-        <v>1</v>
-      </c>
+      <c r="Y40" s="47"/>
+      <c r="Z40" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA40" s="12"/>
       <c r="AB40" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC40" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5" t="s">
@@ -3389,18 +3598,21 @@
       </c>
       <c r="W41" s="5"/>
       <c r="X41" s="5"/>
-      <c r="Y41" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="Y41" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z41" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA41" s="5"/>
       <c r="AB41" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC41" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -3425,7 +3637,7 @@
       </c>
       <c r="R42" s="32" t="str">
         <f>DED!$D$9</f>
-        <v>The maximum amount for contracts signed by a Mandatee representing a Natural or Legal Person</v>
+        <v>The maximum amount for contracts signed by a Mandatee representing a Natural or Legal Person.</v>
       </c>
       <c r="S42" s="27" t="str">
         <f>DED!$B$9</f>
@@ -3446,21 +3658,24 @@
         <f>DED!$F$9</f>
         <v>ccts:Amount</v>
       </c>
-      <c r="Y42" s="27"/>
-      <c r="Z42" s="32" t="str">
+      <c r="Y42" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="32" t="str">
         <f>IF(DED!$G$8=0,"",DED!$G$8)</f>
         <v/>
       </c>
-      <c r="AA42" s="27" t="str">
+      <c r="AB42" s="27" t="str">
         <f>IF(DED!$H$9=0,"",DED!$H$9)</f>
         <v>"currencyId" compulsory</v>
       </c>
-      <c r="AB42" s="32" t="str">
+      <c r="AC42" s="32" t="str">
         <f>IF(DED!$I$9=0,"",DED!$I$9)</f>
         <v>e.g. for Public Sector Contracts</v>
       </c>
     </row>
-    <row r="43" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5" t="s">
@@ -3487,12 +3702,13 @@
       <c r="V43" s="14"/>
       <c r="W43" s="5"/>
       <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
+      <c r="Y43" s="49"/>
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
-    </row>
-    <row r="44" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC43" s="5"/>
+    </row>
+    <row r="44" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="23" t="s">
         <v>26</v>
@@ -3519,12 +3735,13 @@
       <c r="V44" s="4"/>
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
+      <c r="Y44" s="50"/>
       <c r="Z44" s="3"/>
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
-    </row>
-    <row r="45" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC44" s="3"/>
+    </row>
+    <row r="45" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21">
         <v>7</v>
       </c>
@@ -3552,13 +3769,13 @@
       <c r="O45" s="23"/>
       <c r="P45" s="23"/>
       <c r="Q45" s="23" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="R45" s="23" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="S45" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T45" s="26"/>
       <c r="U45" s="31"/>
@@ -3567,16 +3784,19 @@
       </c>
       <c r="W45" s="23"/>
       <c r="X45" s="23"/>
-      <c r="Y45" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z45" s="25"/>
-      <c r="AA45" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB45" s="25"/>
-    </row>
-    <row r="46" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y45" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z45" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA45" s="25"/>
+      <c r="AB45" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="25"/>
+    </row>
+    <row r="46" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>1</v>
       </c>
@@ -3613,16 +3833,17 @@
       </c>
       <c r="W46" s="29"/>
       <c r="X46" s="29"/>
-      <c r="Y46" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z46" s="8"/>
-      <c r="AA46" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB46" s="7"/>
-    </row>
-    <row r="47" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y46" s="46"/>
+      <c r="Z46" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC46" s="7"/>
+    </row>
+    <row r="47" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>1</v>
       </c>
@@ -3655,18 +3876,19 @@
       </c>
       <c r="W47" s="30"/>
       <c r="X47" s="30"/>
-      <c r="Y47" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z47" s="12"/>
-      <c r="AA47" s="12" t="s">
-        <v>1</v>
-      </c>
+      <c r="Y47" s="47"/>
+      <c r="Z47" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA47" s="12"/>
       <c r="AB47" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC47" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5" t="s">
@@ -3687,7 +3909,7 @@
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
       <c r="R48" s="13" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="S48" s="40"/>
       <c r="T48" s="14"/>
@@ -3697,18 +3919,21 @@
       </c>
       <c r="W48" s="5"/>
       <c r="X48" s="5"/>
-      <c r="Y48" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z48" s="5"/>
-      <c r="AA48" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="Y48" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z48" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA48" s="5"/>
       <c r="AB48" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC48" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -3743,7 +3968,7 @@
         <v>9</v>
       </c>
       <c r="U49" s="32" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="V49" s="27" t="s">
         <v>4</v>
@@ -3756,21 +3981,24 @@
         <f>DED!$F$10</f>
         <v>skos:Concept</v>
       </c>
-      <c r="Y49" s="27"/>
-      <c r="Z49" s="32" t="str">
+      <c r="Y49" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z49" s="27"/>
+      <c r="AA49" s="32" t="str">
         <f>IF(DED!$G$10=0,"",DED!$G$10)</f>
         <v>NUTS-2016</v>
       </c>
-      <c r="AA49" s="27" t="str">
+      <c r="AB49" s="27" t="str">
         <f>IF(DED!$H$10=0,"",DED!$H$10)</f>
         <v/>
       </c>
-      <c r="AB49" s="32" t="str">
+      <c r="AC49" s="32" t="str">
         <f>IF(DED!$I$10=0,"",DED!$I$10)</f>
         <v>To be discussed</v>
       </c>
     </row>
-    <row r="50" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5" t="s">
@@ -3797,12 +4025,13 @@
       <c r="V50" s="14"/>
       <c r="W50" s="5"/>
       <c r="X50" s="5"/>
-      <c r="Y50" s="5"/>
+      <c r="Y50" s="49"/>
       <c r="Z50" s="5"/>
       <c r="AA50" s="5"/>
       <c r="AB50" s="5"/>
-    </row>
-    <row r="51" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC50" s="5"/>
+    </row>
+    <row r="51" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="23" t="s">
         <v>26</v>
@@ -3829,12 +4058,13 @@
       <c r="V51" s="4"/>
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
-      <c r="Y51" s="3"/>
+      <c r="Y51" s="50"/>
       <c r="Z51" s="3"/>
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
-    </row>
-    <row r="52" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC51" s="3"/>
+    </row>
+    <row r="52" spans="1:29" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="21">
         <v>8</v>
       </c>
@@ -3862,13 +4092,13 @@
       <c r="O52" s="23"/>
       <c r="P52" s="23"/>
       <c r="Q52" s="23" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="R52" s="23" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="S52" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T52" s="26"/>
       <c r="U52" s="31"/>
@@ -3877,16 +4107,19 @@
       </c>
       <c r="W52" s="23"/>
       <c r="X52" s="23"/>
-      <c r="Y52" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z52" s="25"/>
-      <c r="AA52" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB52" s="25"/>
-    </row>
-    <row r="53" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y52" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z52" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA52" s="25"/>
+      <c r="AB52" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC52" s="25"/>
+    </row>
+    <row r="53" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>1</v>
       </c>
@@ -3923,16 +4156,17 @@
       </c>
       <c r="W53" s="29"/>
       <c r="X53" s="29"/>
-      <c r="Y53" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z53" s="8"/>
-      <c r="AA53" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB53" s="7"/>
-    </row>
-    <row r="54" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y53" s="46"/>
+      <c r="Z53" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC53" s="7"/>
+    </row>
+    <row r="54" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>1</v>
       </c>
@@ -3965,18 +4199,19 @@
       </c>
       <c r="W54" s="30"/>
       <c r="X54" s="30"/>
-      <c r="Y54" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z54" s="12"/>
-      <c r="AA54" s="12" t="s">
-        <v>1</v>
-      </c>
+      <c r="Y54" s="47"/>
+      <c r="Z54" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA54" s="12"/>
       <c r="AB54" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC54" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5" t="s">
@@ -4005,18 +4240,21 @@
       </c>
       <c r="W55" s="5"/>
       <c r="X55" s="5"/>
-      <c r="Y55" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z55" s="5"/>
-      <c r="AA55" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="Y55" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z55" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA55" s="5"/>
       <c r="AB55" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC55" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -4041,7 +4279,7 @@
       </c>
       <c r="R56" s="32" t="str">
         <f>DED!$D$11</f>
-        <v>The lapse of time during which a power can be used</v>
+        <v>The lapse of time during which a power can be used.</v>
       </c>
       <c r="S56" s="27" t="str">
         <f>DED!$B$11</f>
@@ -4062,21 +4300,24 @@
         <f>DED!$F$11</f>
         <v>ubl:Period</v>
       </c>
-      <c r="Y56" s="27"/>
-      <c r="Z56" s="32" t="str">
+      <c r="Y56" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z56" s="27"/>
+      <c r="AA56" s="32" t="str">
         <f>IF(DED!$G$11=0,"",DED!$G$11)</f>
         <v/>
       </c>
-      <c r="AA56" s="27" t="str">
+      <c r="AB56" s="27" t="str">
         <f>IF(DED!$H$10=0,"",DED!$H$10)</f>
         <v/>
       </c>
-      <c r="AB56" s="32" t="str">
+      <c r="AC56" s="32" t="str">
         <f>IF(DED!$I$11=0,"",DED!$I$11)</f>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5" t="s">
@@ -4103,12 +4344,13 @@
       <c r="V57" s="14"/>
       <c r="W57" s="5"/>
       <c r="X57" s="5"/>
-      <c r="Y57" s="5"/>
+      <c r="Y57" s="49"/>
       <c r="Z57" s="5"/>
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
-    </row>
-    <row r="58" spans="1:28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC57" s="5"/>
+    </row>
+    <row r="58" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="23" t="s">
         <v>26</v>
@@ -4135,14 +4377,42 @@
       <c r="V58" s="4"/>
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
-      <c r="Y58" s="3"/>
+      <c r="Y58" s="50"/>
       <c r="Z58" s="3"/>
       <c r="AA58" s="3"/>
       <c r="AB58" s="3"/>
+      <c r="AC58" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Z3" r:id="rId1" location="EUMSGeographicalConstraint; 84706220-0d3f-40d5-bee2-2bae8197d21c" display="https://github.com/everis-rpam/RPaM-Ontology/blob/v1.1.0/06-MorMee_Constraints/mormeeconstraints.ttl#EUMSGeographicalConstraint; 84706220-0d3f-40d5-bee2-2bae8197d21c"/>
+    <hyperlink ref="Y3" r:id="rId2" location="EUMSGeographicalConstraint"/>
+    <hyperlink ref="Y6" r:id="rId3" location="EUMSGeographicalGroup"/>
+    <hyperlink ref="Y7" r:id="rId4" location="EUMSGeographicalProperty"/>
+    <hyperlink ref="Y10" r:id="rId5" location="AdministrativeLevelConstraint"/>
+    <hyperlink ref="Y13" r:id="rId6" location="AdministrativeLevelGroup"/>
+    <hyperlink ref="Y14" r:id="rId7" location="AdministrativeLevelProperty"/>
+    <hyperlink ref="Y17" r:id="rId8" location="MaxPaymentThresholdConstraint"/>
+    <hyperlink ref="Y20" r:id="rId9" location="MaxPaymentThresholdGroup"/>
+    <hyperlink ref="Y21" r:id="rId10" location="MaxPaymentThresholdProperty"/>
+    <hyperlink ref="Y24" r:id="rId11" location="MaxPurchaseThresholdConstraint"/>
+    <hyperlink ref="Y27" r:id="rId12" location="MaxPurchaseThresholdGroup"/>
+    <hyperlink ref="Y28" r:id="rId13" location="MaxPurchaseThresholdProperty"/>
+    <hyperlink ref="Y31" r:id="rId14" location="MaxBusinessCreationConstraint"/>
+    <hyperlink ref="Y34" r:id="rId15" location="MaxBusinessCreationGroup"/>
+    <hyperlink ref="Y35" r:id="rId16" location="MaxBusinessCreationProperty"/>
+    <hyperlink ref="Y38" r:id="rId17" location="MaxContractValueConstraint"/>
+    <hyperlink ref="Y41" r:id="rId18" location="MaxContractValueGroup"/>
+    <hyperlink ref="Y42" r:id="rId19" location="MaxContractValueProperty"/>
+    <hyperlink ref="Y45" r:id="rId20"/>
+    <hyperlink ref="Y48" r:id="rId21"/>
+    <hyperlink ref="Y49" r:id="rId22"/>
+    <hyperlink ref="Y52" r:id="rId23" location="PowerValdityPeriodConstraint"/>
+    <hyperlink ref="Y55" r:id="rId24" location="PowerValdityPeriodGroup"/>
+    <hyperlink ref="Y56" r:id="rId25" location="PowerValdityPeriodProperty"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
 
@@ -4150,9 +4420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y33" sqref="Y33"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4303,16 +4571,16 @@
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
       <c r="Q2" s="20" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R2" s="20" t="s">
         <v>34</v>
       </c>
       <c r="S2" s="20" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="T2" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U2" s="20" t="s">
         <v>24</v>
@@ -4367,10 +4635,10 @@
       <c r="O3" s="23"/>
       <c r="P3" s="23"/>
       <c r="Q3" s="23" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="R3" s="23" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="S3" s="23"/>
       <c r="T3" s="26"/>
@@ -4381,7 +4649,7 @@
       <c r="W3" s="23"/>
       <c r="X3" s="23"/>
       <c r="Y3" s="23" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="Z3" s="25" t="s">
         <v>1</v>
@@ -4429,7 +4697,7 @@
       <c r="W4" s="29"/>
       <c r="X4" s="29"/>
       <c r="Y4" s="33" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="Z4" s="7" t="s">
         <v>1</v>
@@ -4473,7 +4741,7 @@
       <c r="W5" s="30"/>
       <c r="X5" s="30"/>
       <c r="Y5" s="10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="Z5" s="12" t="s">
         <v>1</v>
@@ -4506,7 +4774,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="13" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="S6" s="5"/>
       <c r="T6" s="14"/>
@@ -4517,7 +4785,7 @@
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="15" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="Z6" s="5" t="s">
         <v>1</v>
@@ -4554,7 +4822,7 @@
       </c>
       <c r="R7" s="32" t="str">
         <f>DED!$D$4</f>
-        <v>The country code of the EU Member State where this Person can act</v>
+        <v>The country code of the EU Member State where this Person can act.</v>
       </c>
       <c r="S7" s="32" t="str">
         <f>DED!$B$4</f>
@@ -4564,7 +4832,7 @@
         <v>9</v>
       </c>
       <c r="U7" s="32" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="V7" s="27" t="s">
         <v>4</v>
@@ -4612,7 +4880,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="13" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="S8" s="5"/>
       <c r="T8" s="14"/>
@@ -4623,7 +4891,7 @@
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="15" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="Z8" s="5" t="s">
         <v>1</v>
@@ -4660,7 +4928,7 @@
       </c>
       <c r="R9" s="32" t="str">
         <f>DED!$D$9</f>
-        <v>The maximum amount for contracts signed by a Mandatee representing a Natural or Legal Person</v>
+        <v>The maximum amount for contracts signed by a Mandatee representing a Natural or Legal Person.</v>
       </c>
       <c r="S9" s="32" t="str">
         <f>DED!$B$9</f>
@@ -4670,7 +4938,7 @@
         <v>9</v>
       </c>
       <c r="U9" s="32" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="V9" s="27">
         <v>1</v>
@@ -4821,10 +5089,10 @@
       <c r="O13" s="23"/>
       <c r="P13" s="23"/>
       <c r="Q13" s="23" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R13" s="23" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="S13" s="23"/>
       <c r="T13" s="26"/>
@@ -4835,7 +5103,7 @@
       <c r="W13" s="23"/>
       <c r="X13" s="23"/>
       <c r="Y13" s="23" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Z13" s="25" t="s">
         <v>1</v>
@@ -4883,7 +5151,7 @@
       <c r="W14" s="29"/>
       <c r="X14" s="29"/>
       <c r="Y14" s="33" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="Z14" s="7" t="s">
         <v>1</v>
@@ -4927,7 +5195,7 @@
       <c r="W15" s="30"/>
       <c r="X15" s="30"/>
       <c r="Y15" s="10" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="Z15" s="12" t="s">
         <v>1</v>
@@ -4960,7 +5228,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="13" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="S16" s="5"/>
       <c r="T16" s="14"/>
@@ -4971,7 +5239,7 @@
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="15" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="Z16" s="5" t="s">
         <v>1</v>
@@ -5008,7 +5276,7 @@
       </c>
       <c r="R17" s="32" t="str">
         <f>DED!$D$4</f>
-        <v>The country code of the EU Member State where this Person can act</v>
+        <v>The country code of the EU Member State where this Person can act.</v>
       </c>
       <c r="S17" s="32" t="str">
         <f>DED!$B$4</f>
@@ -5018,7 +5286,7 @@
         <v>9</v>
       </c>
       <c r="U17" s="32" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="V17" s="27" t="s">
         <v>4</v>
@@ -5066,7 +5334,7 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="13" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="S18" s="5"/>
       <c r="T18" s="14"/>
@@ -5077,7 +5345,7 @@
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="15" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="Z18" s="5" t="s">
         <v>1</v>
@@ -5114,7 +5382,7 @@
       </c>
       <c r="R19" s="32" t="str">
         <f>DED!$D$9</f>
-        <v>The maximum amount for contracts signed by a Mandatee representing a Natural or Legal Person</v>
+        <v>The maximum amount for contracts signed by a Mandatee representing a Natural or Legal Person.</v>
       </c>
       <c r="S19" s="32" t="str">
         <f>DED!$B$9</f>
@@ -5124,7 +5392,7 @@
         <v>9</v>
       </c>
       <c r="U19" s="32" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="V19" s="27">
         <v>1</v>
@@ -5172,7 +5440,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="13" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="S20" s="5"/>
       <c r="T20" s="14"/>
@@ -5183,7 +5451,7 @@
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="15" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="Z20" s="5"/>
       <c r="AA20" s="5" t="s">
@@ -5218,7 +5486,7 @@
       </c>
       <c r="R21" s="32" t="str">
         <f>DED!$D$11</f>
-        <v>The lapse of time during which a power can be used</v>
+        <v>The lapse of time during which a power can be used.</v>
       </c>
       <c r="S21" s="32" t="str">
         <f>DED!$B$11</f>
@@ -5409,10 +5677,10 @@
       <c r="O26" s="23"/>
       <c r="P26" s="23"/>
       <c r="Q26" s="23" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R26" s="23" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="S26" s="23"/>
       <c r="T26" s="26"/>
@@ -5423,7 +5691,7 @@
       <c r="W26" s="23"/>
       <c r="X26" s="23"/>
       <c r="Y26" s="41" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="Z26" s="25" t="s">
         <v>1</v>
@@ -5551,7 +5819,7 @@
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
       <c r="Y29" s="5" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="Z29" s="5"/>
       <c r="AA29" s="5" t="s">
@@ -5586,7 +5854,7 @@
       </c>
       <c r="R30" s="32" t="str">
         <f>DED!$D$8</f>
-        <v>The maximum number of businesses a Mandator can create on behalf of the Mandator</v>
+        <v>The maximum number of businesses a Mandator can create on behalf of the Mandator.</v>
       </c>
       <c r="S30" s="27" t="str">
         <f>DED!$B$8</f>
@@ -5596,7 +5864,7 @@
         <v>9</v>
       </c>
       <c r="U30" s="32" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="V30" s="27">
         <v>1</v>
@@ -5610,7 +5878,7 @@
         <v>ccts:Quantity</v>
       </c>
       <c r="Y30" s="32" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="Z30" s="32"/>
       <c r="AA30" s="27" t="str">
@@ -5680,7 +5948,7 @@
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
       <c r="Y32" s="42" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="Z32" s="5"/>
       <c r="AA32" s="5" t="s">
@@ -5715,7 +5983,7 @@
       </c>
       <c r="R33" s="32" t="str">
         <f>DED!$D$11</f>
-        <v>The lapse of time during which a power can be used</v>
+        <v>The lapse of time during which a power can be used.</v>
       </c>
       <c r="S33" s="27" t="str">
         <f>DED!$B$11</f>
@@ -5725,7 +5993,7 @@
         <v>9</v>
       </c>
       <c r="U33" s="32" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="V33" s="27">
         <v>1</v>
@@ -5739,7 +6007,7 @@
         <v>ubl:Period</v>
       </c>
       <c r="Y33" s="32" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="Z33" s="32"/>
       <c r="AA33" s="27" t="str">
@@ -5833,7 +6101,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5874,7 +6142,7 @@
         <v>15</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" s="28" t="s">
         <v>29</v>
@@ -5894,10 +6162,10 @@
         <v>33</v>
       </c>
       <c r="D4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" t="s">
         <v>40</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -5914,22 +6182,22 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
         <v>54</v>
       </c>
-      <c r="C5" t="s">
-        <v>55</v>
-      </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>164</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I5" t="s">
         <v>38</v>
@@ -5940,13 +6208,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>165</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -5955,7 +6223,7 @@
         <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -5963,13 +6231,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>166</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
@@ -5978,7 +6246,7 @@
         <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -5986,22 +6254,22 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>167</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -6009,13 +6277,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
@@ -6024,10 +6292,10 @@
         <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -6035,25 +6303,25 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -6061,16 +6329,16 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="E11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>

--- a/06-MorMee_Constraints/MorMee-PowerConstraints.xlsx
+++ b/06-MorMee_Constraints/MorMee-PowerConstraints.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="77">
   <si>
     <t>Cardinality</t>
   </si>
@@ -74,9 +74,6 @@
     <t>skos:Concept</t>
   </si>
   <si>
-    <t>FINANCIAL</t>
-  </si>
-  <si>
     <t>AmountType</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
     <t>[Subcriterion Description]</t>
   </si>
   <si>
-    <t>List of the EU MS countries where a Legal or Natural Person can act</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -134,12 +128,6 @@
     <t>NUTS-2016</t>
   </si>
   <si>
-    <t>b033b149-aa22-49e3-8c96-b1a9132c8456</t>
-  </si>
-  <si>
-    <t>currencyId compulsory</t>
-  </si>
-  <si>
     <t>PeriodType</t>
   </si>
   <si>
@@ -161,18 +149,12 @@
     <t>URI</t>
   </si>
   <si>
-    <t>https://github.com/everis-rpam/RPaM-Ontology/blob/v1.1.0/06-MorMee_Constraints/mormeeconstraints.ttl#MaxPaymentThresholdConstraint</t>
-  </si>
-  <si>
     <t>GenericConstraints</t>
   </si>
   <si>
     <t>Group of usual constraints expressed in a very generic way.</t>
   </si>
   <si>
-    <t>GENERIC</t>
-  </si>
-  <si>
     <t>https://github.com/everis-rpam/RPaM-Ontology/blob/v1.1.0/06-MorMee_Constraints/mormeeconstraints.ttl#GenericConstraint</t>
   </si>
   <si>
@@ -188,45 +170,12 @@
     <t>725c8a75-74f2-4cae-b1f6-11a82400f6d9</t>
   </si>
   <si>
-    <t>https://github.com/everis-rpam/RPaM-Ontology/blob/v1.1.0/06-MorMee_Constraints/mormeeconstraints.ttl#GenericGroup</t>
-  </si>
-  <si>
-    <t>https://github.com/everis-rpam/RPaM-Ontology/blob/v1.1.0/06-MorMee_Constraints/mormeeconstraints.ttl#FinancialConstraintProperty</t>
-  </si>
-  <si>
-    <t>https://github.com/everis-rpam/RPaM-Ontology/blob/v1.1.0/06-MorMee_Constraints/mormeeconstraints.ttl#GeographicalConstraintProperty</t>
-  </si>
-  <si>
-    <t>https://github.com/everis-rpam/RPaM-Ontology/blob/v1.1.0/06-MorMee_Constraints/mormeeconstraints.ttl#ValidityPeriodConstraintProperty</t>
-  </si>
-  <si>
-    <t>TERRITORIAL_UNIT</t>
-  </si>
-  <si>
-    <t>Territorial Unit</t>
-  </si>
-  <si>
     <t>Constraints applied to the use of powers by mandators and mandatees. Rule: the statements are to be expressed always in a negative form. Please bear in mind this rule when defining new constraints.</t>
   </si>
   <si>
-    <t>FINANCIAL CEIL</t>
-  </si>
-  <si>
-    <t>Financial Ceil</t>
-  </si>
-  <si>
     <t>The person cannot use the power above the amount of</t>
   </si>
   <si>
-    <t>The person can not use the power in the following territorial units</t>
-  </si>
-  <si>
-    <t>VALIDITY_PERIOD</t>
-  </si>
-  <si>
-    <t>Validity Period</t>
-  </si>
-  <si>
     <t>If a measure is used to express the length of the period: 1) the endDate must not be specified; and 2) the unitCode of the measure must be specified.</t>
   </si>
   <si>
@@ -243,6 +192,66 @@
   </si>
   <si>
     <t>[e.g. startDate = 2019-01-01, 3 YEAR]</t>
+  </si>
+  <si>
+    <t>List of basic generic constraints</t>
+  </si>
+  <si>
+    <t>Territorial unit scope</t>
+  </si>
+  <si>
+    <t>Financial ceil</t>
+  </si>
+  <si>
+    <t>The person can not use the power out of the following territorial unit(s)</t>
+  </si>
+  <si>
+    <t>One single use</t>
+  </si>
+  <si>
+    <t>The person cannot use the power more than once</t>
+  </si>
+  <si>
+    <t>IndicatorType</t>
+  </si>
+  <si>
+    <t>Once successfully consumed the power, the SP must notify the eMandate Registry so the Registry can change the status of the power.</t>
+  </si>
+  <si>
+    <t>Compulsory use of NUTs for the identification of territorial units</t>
+  </si>
+  <si>
+    <t>Attribute `currencyId` compulsory when the value is an amount</t>
+  </si>
+  <si>
+    <t>[e.g. true]</t>
+  </si>
+  <si>
+    <t>If `true`, the maximum number of uses is 1, otherwise it is unlimited</t>
+  </si>
+  <si>
+    <t>xsd:boolean</t>
+  </si>
+  <si>
+    <t>OneSingleUse</t>
+  </si>
+  <si>
+    <t>ValidityPeriodConstraint</t>
+  </si>
+  <si>
+    <t>TerritorialUnitScope</t>
+  </si>
+  <si>
+    <t>FinancialCeil</t>
+  </si>
+  <si>
+    <t>GenericConstraintsGroup</t>
+  </si>
+  <si>
+    <t>Validity period</t>
+  </si>
+  <si>
+    <t>GenericConstraintCriterion</t>
   </si>
 </sst>
 </file>
@@ -795,7 +804,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -914,6 +923,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1247,12 +1259,12 @@
   <sheetData>
     <row r="4" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1262,13 +1274,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD73"/>
+  <dimension ref="A1:AD74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.46484375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1280,8 +1292,8 @@
     <col min="9" max="9" width="2.796875" style="2" hidden="1" customWidth="1"/>
     <col min="10" max="16" width="3.796875" style="2" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="55.86328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="57.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.9296875" style="13" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.9296875" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.796875" style="2" customWidth="1"/>
     <col min="22" max="22" width="10.53125" style="13" bestFit="1" customWidth="1"/>
@@ -1291,7 +1303,8 @@
     <col min="26" max="26" width="9.1328125" style="14" customWidth="1"/>
     <col min="27" max="27" width="11.46484375" style="13" customWidth="1"/>
     <col min="28" max="28" width="36.53125" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="11.46484375" style="2"/>
+    <col min="29" max="29" width="54.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="11.46484375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.45">
@@ -1423,19 +1436,19 @@
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
       <c r="Q2" s="17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U2" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V2" s="17" t="s">
         <v>0</v>
@@ -1447,7 +1460,7 @@
         <v>14</v>
       </c>
       <c r="Y2" s="35" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z2" s="17" t="s">
         <v>8</v>
@@ -1456,10 +1469,10 @@
         <v>5</v>
       </c>
       <c r="AB2" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC2" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.45">
@@ -1467,7 +1480,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
@@ -1490,13 +1503,13 @@
       <c r="O3" s="20"/>
       <c r="P3" s="20"/>
       <c r="Q3" s="20" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R3" s="20" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="S3" s="21" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="T3" s="23"/>
       <c r="U3" s="28"/>
@@ -1506,10 +1519,10 @@
       <c r="W3" s="20"/>
       <c r="X3" s="20"/>
       <c r="Y3" s="33" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="Z3" s="40" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AA3" s="22"/>
       <c r="AB3" s="22" t="s">
@@ -1525,7 +1538,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1541,10 +1554,10 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
@@ -1556,7 +1569,7 @@
       <c r="X4" s="26"/>
       <c r="Y4" s="36"/>
       <c r="Z4" s="41" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="AA4" s="6"/>
       <c r="AB4" s="5" t="s">
@@ -1599,7 +1612,7 @@
       <c r="X5" s="27"/>
       <c r="Y5" s="37"/>
       <c r="Z5" s="42" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AA5" s="10"/>
       <c r="AB5" s="10" t="s">
@@ -1630,9 +1643,11 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S6" s="32"/>
+        <v>57</v>
+      </c>
+      <c r="S6" s="44" t="s">
+        <v>74</v>
+      </c>
       <c r="T6" s="12"/>
       <c r="U6" s="3"/>
       <c r="V6" s="12">
@@ -1640,11 +1655,9 @@
       </c>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
-      <c r="Y6" s="33" t="s">
-        <v>55</v>
-      </c>
+      <c r="Y6" s="3"/>
       <c r="Z6" s="43" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3" t="s">
@@ -1675,21 +1688,21 @@
       <c r="P7" s="24"/>
       <c r="Q7" s="29" t="str">
         <f>DED!$C$4</f>
-        <v>Financial Ceil</v>
+        <v>Financial ceil</v>
       </c>
       <c r="R7" s="29" t="str">
         <f>DED!$D$4</f>
         <v>The person cannot use the power above the amount of</v>
       </c>
-      <c r="S7" s="24" t="str">
+      <c r="S7" s="29" t="str">
         <f>DED!$B$4</f>
-        <v>FINANCIAL CEIL</v>
+        <v>FinancialCeil</v>
       </c>
       <c r="T7" s="24" t="s">
         <v>9</v>
       </c>
       <c r="U7" s="29" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="V7" s="24">
         <v>1</v>
@@ -1702,22 +1715,21 @@
         <f>DED!$F$4</f>
         <v>ccts:Amount</v>
       </c>
-      <c r="Y7" s="34" t="s">
-        <v>56</v>
-      </c>
+      <c r="Y7" s="34"/>
       <c r="Z7" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="AA7" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="24" t="str">
+      <c r="AA7" s="29" t="str">
+        <f>IF(DED!$G$4=0,"",DED!$G$4)</f>
+        <v/>
+      </c>
+      <c r="AB7" s="29" t="str">
         <f>IF(DED!$H$4=0,"",DED!$H$4)</f>
-        <v>currencyId compulsory</v>
+        <v>Attribute `currencyId` compulsory when the value is an amount</v>
       </c>
       <c r="AC7" s="29" t="str">
         <f>IF(DED!$I$4=0,"",DED!$I$4)</f>
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="8" spans="1:30" customFormat="1" x14ac:dyDescent="0.45">
@@ -1741,21 +1753,21 @@
       <c r="P8" s="24"/>
       <c r="Q8" s="29" t="str">
         <f>DED!$C$5</f>
-        <v>Territorial Unit</v>
+        <v>Territorial unit scope</v>
       </c>
       <c r="R8" s="29" t="str">
         <f>DED!$D$5</f>
-        <v>The person can not use the power in the following territorial units</v>
-      </c>
-      <c r="S8" s="24" t="str">
+        <v>The person can not use the power out of the following territorial unit(s)</v>
+      </c>
+      <c r="S8" s="29" t="str">
         <f>DED!$B$5</f>
-        <v>TERRITORIAL_UNIT</v>
+        <v>TerritorialUnitScope</v>
       </c>
       <c r="T8" s="24" t="s">
         <v>9</v>
       </c>
       <c r="U8" s="29" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="V8" s="24" t="s">
         <v>4</v>
@@ -1768,20 +1780,21 @@
         <f>DED!$F$5</f>
         <v>skos:Concept</v>
       </c>
-      <c r="Y8" s="34" t="s">
-        <v>57</v>
-      </c>
+      <c r="Y8" s="34"/>
       <c r="Z8" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="AA8" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="24" t="s">
-        <v>1</v>
+      <c r="AA8" s="29" t="str">
+        <f>IF(DED!$G$5=0,"",DED!$G$5)</f>
+        <v>NUTS-2016</v>
+      </c>
+      <c r="AB8" s="29" t="str">
+        <f>IF(DED!$H$5=0,"",DED!$H$5)</f>
+        <v>Compulsory use of NUTs for the identification of territorial units</v>
+      </c>
+      <c r="AC8" s="29" t="str">
+        <f>IF(DED!$I$5=0,"",DED!$I$5)</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="9" spans="1:30" customFormat="1" x14ac:dyDescent="0.45">
@@ -1805,21 +1818,21 @@
       <c r="P9" s="24"/>
       <c r="Q9" s="29" t="str">
         <f>DED!$C$6</f>
-        <v>Validity Period</v>
+        <v>Validity period</v>
       </c>
       <c r="R9" s="29" t="str">
         <f>DED!$D$6</f>
         <v>The person cannot use the power beyond this time interval</v>
       </c>
-      <c r="S9" s="24" t="str">
+      <c r="S9" s="29" t="str">
         <f>DED!$B$6</f>
-        <v>VALIDITY_PERIOD</v>
+        <v>ValidityPeriodConstraint</v>
       </c>
       <c r="T9" s="24" t="s">
         <v>9</v>
       </c>
       <c r="U9" s="29" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="V9" s="24">
         <v>1</v>
@@ -1832,458 +1845,480 @@
         <f>DED!$F$6</f>
         <v>ubl:Period</v>
       </c>
-      <c r="Y9" s="34" t="s">
-        <v>58</v>
-      </c>
+      <c r="Y9" s="34"/>
       <c r="Z9" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="AA9" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="24" t="s">
-        <v>1</v>
+      <c r="AA9" s="29" t="str">
+        <f>IF(DED!$H$6=0,"",DED!$H$6)</f>
+        <v>If a measure is used to express the length of the period: 1) the endDate must not be specified; and 2) the unitCode of the measure must be specified.</v>
+      </c>
+      <c r="AB9" s="29" t="str">
+        <f>IF(DED!$H$6=0,"",DED!$H$6)</f>
+        <v>If a measure is used to express the length of the period: 1) the endDate must not be specified; and 2) the unitCode of the measure must be specified.</v>
+      </c>
+      <c r="AC9" s="29" t="str">
+        <f>IF(DED!$I$6=0,"",DED!$I$6)</f>
+        <v>Reuse OP's code list</v>
       </c>
     </row>
     <row r="10" spans="1:30" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="29" t="str">
+        <f>DED!$C$7</f>
+        <v>One single use</v>
+      </c>
+      <c r="R10" s="29" t="str">
+        <f>DED!$D$7</f>
+        <v>The person cannot use the power more than once</v>
+      </c>
+      <c r="S10" s="29" t="str">
+        <f>DED!$B$7</f>
+        <v>OneSingleUse</v>
+      </c>
+      <c r="T10" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="U10" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="V10" s="24">
+        <v>1</v>
+      </c>
+      <c r="W10" s="24" t="str">
+        <f>DED!$E$7</f>
+        <v>IndicatorType</v>
+      </c>
+      <c r="X10" s="24" t="str">
+        <f>DED!$F$7</f>
+        <v>xsd:boolean</v>
+      </c>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="29" t="str">
+        <f>IF(DED!$H$7=0,"",DED!$H$7)</f>
+        <v>Once successfully consumed the power, the SP must notify the eMandate Registry so the Registry can change the status of the power.</v>
+      </c>
+      <c r="AB10" s="29" t="str">
+        <f>IF(DED!$H$7=0,"",DED!$H$7)</f>
+        <v>Once successfully consumed the power, the SP must notify the eMandate Registry so the Registry can change the status of the power.</v>
+      </c>
+      <c r="AC10" s="29" t="str">
+        <f>IF(DED!$I$7=0,"",DED!$I$7)</f>
+        <v>If `true`, the maximum number of uses is 1, otherwise it is unlimited</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S10" s="32"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="12">
-        <v>1</v>
-      </c>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z10" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="18">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="12">
+        <v>1</v>
+      </c>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="18">
         <v>3</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="R11" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="S11" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="T11" s="23"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z11" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="22"/>
-    </row>
-    <row r="12" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="Y12"/>
-      <c r="Z12"/>
-      <c r="AA12"/>
-      <c r="AB12"/>
-      <c r="AC12"/>
-      <c r="AD12"/>
-    </row>
-    <row r="13" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
+      <c r="B12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="S12" s="21"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="22"/>
+    </row>
+    <row r="13" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+    </row>
     <row r="14" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="15" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="17" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="18" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="19" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19"/>
-      <c r="AA19"/>
-      <c r="AB19"/>
-      <c r="AC19"/>
-      <c r="AD19"/>
-    </row>
-    <row r="20" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="19" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="20" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+    </row>
     <row r="21" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="22" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="23" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="24" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="25" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="26" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
-      <c r="R26"/>
-      <c r="S26"/>
-      <c r="T26"/>
-      <c r="U26"/>
-      <c r="V26"/>
-      <c r="W26"/>
-      <c r="X26"/>
-      <c r="Y26"/>
-      <c r="Z26"/>
-      <c r="AA26"/>
-      <c r="AB26"/>
-      <c r="AC26"/>
-      <c r="AD26"/>
-    </row>
-    <row r="27" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="26" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="27" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+    </row>
     <row r="28" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="29" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="30" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="31" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="32" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="33" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33"/>
-      <c r="Q33"/>
-      <c r="R33"/>
-      <c r="S33"/>
-      <c r="T33"/>
-      <c r="U33"/>
-      <c r="V33"/>
-      <c r="W33"/>
-      <c r="X33"/>
-      <c r="Y33"/>
-      <c r="Z33"/>
-      <c r="AA33"/>
-      <c r="AB33"/>
-      <c r="AC33"/>
-      <c r="AD33"/>
-    </row>
-    <row r="34" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="33" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="34" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+    </row>
     <row r="35" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="36" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="37" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="38" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="39" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="40" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40"/>
-      <c r="Q40"/>
-      <c r="R40"/>
-      <c r="S40"/>
-      <c r="T40"/>
-      <c r="U40"/>
-      <c r="V40"/>
-      <c r="W40"/>
-      <c r="X40"/>
-      <c r="Y40"/>
-      <c r="Z40"/>
-      <c r="AA40"/>
-      <c r="AB40"/>
-      <c r="AC40"/>
-      <c r="AD40"/>
-    </row>
-    <row r="41" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="40" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="41" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+      <c r="AB41"/>
+      <c r="AC41"/>
+      <c r="AD41"/>
+    </row>
     <row r="42" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="43" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="44" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="45" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="46" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="47" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
-      <c r="I47"/>
-      <c r="J47"/>
-      <c r="K47"/>
-      <c r="L47"/>
-      <c r="M47"/>
-      <c r="N47"/>
-      <c r="O47"/>
-      <c r="P47"/>
-      <c r="Q47"/>
-      <c r="R47"/>
-      <c r="S47"/>
-      <c r="T47"/>
-      <c r="U47"/>
-      <c r="V47"/>
-      <c r="W47"/>
-      <c r="X47"/>
-      <c r="Y47"/>
-      <c r="Z47"/>
-      <c r="AA47"/>
-      <c r="AB47"/>
-      <c r="AC47"/>
-      <c r="AD47"/>
-    </row>
-    <row r="48" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="47" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="48" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48"/>
+      <c r="AB48"/>
+      <c r="AC48"/>
+      <c r="AD48"/>
+    </row>
     <row r="49" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="50" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="51" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="52" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="53" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="54" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A54"/>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-      <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54"/>
-      <c r="L54"/>
-      <c r="M54"/>
-      <c r="N54"/>
-      <c r="O54"/>
-      <c r="P54"/>
-      <c r="Q54"/>
-      <c r="R54"/>
-      <c r="S54"/>
-      <c r="T54"/>
-      <c r="U54"/>
-      <c r="V54"/>
-      <c r="W54"/>
-      <c r="X54"/>
-      <c r="Y54"/>
-      <c r="Z54"/>
-      <c r="AA54"/>
-      <c r="AB54"/>
-      <c r="AC54"/>
-      <c r="AD54"/>
-    </row>
-    <row r="55" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="54" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="55" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+      <c r="AB55"/>
+      <c r="AC55"/>
+      <c r="AD55"/>
+    </row>
     <row r="56" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="57" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="58" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="59" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="60" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="61" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A61"/>
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="D61"/>
-      <c r="E61"/>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="H61"/>
-      <c r="I61"/>
-      <c r="J61"/>
-      <c r="K61"/>
-      <c r="L61"/>
-      <c r="M61"/>
-      <c r="N61"/>
-      <c r="O61"/>
-      <c r="P61"/>
-      <c r="Q61"/>
-      <c r="R61"/>
-      <c r="S61"/>
-      <c r="T61"/>
-      <c r="U61"/>
-      <c r="V61"/>
-      <c r="W61"/>
-      <c r="X61"/>
-      <c r="Y61"/>
-      <c r="Z61"/>
-      <c r="AA61"/>
-      <c r="AB61"/>
-      <c r="AC61"/>
-      <c r="AD61"/>
-    </row>
-    <row r="62" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="61" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="62" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+      <c r="Y62"/>
+      <c r="Z62"/>
+      <c r="AA62"/>
+      <c r="AB62"/>
+      <c r="AC62"/>
+      <c r="AD62"/>
+    </row>
     <row r="63" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="64" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="65" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="66" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="67" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A68"/>
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68"/>
-      <c r="G68"/>
-      <c r="H68"/>
-      <c r="I68"/>
-      <c r="J68"/>
-      <c r="K68"/>
-      <c r="L68"/>
-      <c r="M68"/>
-      <c r="N68"/>
-      <c r="O68"/>
-      <c r="P68"/>
-      <c r="Q68"/>
-      <c r="R68"/>
-      <c r="S68"/>
-      <c r="T68"/>
-      <c r="U68"/>
-      <c r="V68"/>
-      <c r="W68"/>
-      <c r="X68"/>
-      <c r="Y68"/>
-      <c r="Z68"/>
-      <c r="AA68"/>
-      <c r="AB68"/>
-      <c r="AC68"/>
-      <c r="AD68"/>
-    </row>
+    <row r="68" spans="1:30" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="69" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A69"/>
       <c r="B69"/>
@@ -2444,18 +2479,46 @@
       <c r="AC73"/>
       <c r="AD73"/>
     </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A74"/>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
+      <c r="W74"/>
+      <c r="X74"/>
+      <c r="Y74"/>
+      <c r="Z74"/>
+      <c r="AA74"/>
+      <c r="AB74"/>
+      <c r="AC74"/>
+      <c r="AD74"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="Y3" r:id="rId1" location="GenericConstraint"/>
-    <hyperlink ref="Y7" r:id="rId2" location="FinancialConstraintProperty"/>
-    <hyperlink ref="Y11" r:id="rId3" location="MaxPaymentThresholdConstraint"/>
-    <hyperlink ref="Y6" r:id="rId4" location="GenericGroup"/>
-    <hyperlink ref="Y8" r:id="rId5" location="GeographicalConstraintProperty"/>
-    <hyperlink ref="Y9" r:id="rId6" location="ValidityPeriodConstraintProperty"/>
-    <hyperlink ref="Y10" r:id="rId7" location="GenericGroup"/>
+    <hyperlink ref="Y12" r:id="rId2" location="MaxPaymentThresholdConstraint" display="https://github.com/everis-rpam/RPaM-Ontology/blob/v1.1.0/06-MorMee_Constraints/mormeeconstraints.ttl#MaxPaymentThresholdConstraint"/>
+    <hyperlink ref="Y11" r:id="rId3" location="GenericGroup" display="https://github.com/everis-rpam/RPaM-Ontology/blob/v1.1.0/06-MorMee_Constraints/mormeeconstraints.ttl#GenericGroup"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2480,12 +2543,12 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="25" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>10</v>
@@ -2503,10 +2566,10 @@
         <v>14</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3" s="25" t="s">
         <v>15</v>
@@ -2517,22 +2580,25 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>66</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
@@ -2540,22 +2606,28 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
         <v>60</v>
       </c>
-      <c r="D5" t="s">
-        <v>65</v>
-      </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
@@ -2563,33 +2635,54 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
